--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/1_Adana_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/1_Adana_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{536F57CE-C7EA-4EC6-A720-140506339FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83FDA62A-F4F3-49C7-90FC-320150089983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="735" xr2:uid="{73BA78DB-398B-449B-90A9-65D356E93193}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="735" xr2:uid="{0F9A2269-8DC7-44D5-BE7A-8DDBAE618C64}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -950,13 +950,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{FC003E50-A1D1-40AE-8ED5-6E0D65F413B1}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{3988B94F-387D-434E-88AE-4CE1AEDCF302}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{9993564C-49A1-4EFF-A1F3-F16F7EF9496C}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{9E48CC16-7B40-4098-9F3B-B171572E506A}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{BD1FFF67-58F6-48EF-B4B3-06A4FB8FBA1A}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{DD7726D0-3EE1-4A01-8491-F9B6DB0F1943}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{246B4FCB-461C-4A2E-90F5-DDFA99E72FD5}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{7C6433CF-EBC3-4042-949D-BD0DA7C5C187}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{072ACCF0-E08B-49E7-98A6-2A47D7F56526}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{25D38C3F-4C8D-42F5-9CF4-557AB8F613FC}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{843247BB-80BE-497D-9499-9B4145F0D345}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{2EE386C8-0712-4764-B461-EFFE6A8A5DCF}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{DF4D6D68-1416-4534-B451-AE96E031BBD9}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{367402ED-0A04-408E-9E0D-648D750AA416}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1326,7 +1326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE51ECF-2E58-412A-9E95-3CE6BD28D5B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9135AC8C-2CFB-4A70-8F75-D8ADAB58065D}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="A1:F101"/>
   <sheetViews>
@@ -2649,18 +2649,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{1B39EEB8-2B64-4CC3-9310-BEB9D2B737BD}"/>
-    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{17824A58-81AF-42CF-9280-933DD7CD9DB6}"/>
-    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{BDF928E7-DA99-4BEB-B6AA-192F3F0E89D5}"/>
-    <hyperlink ref="C6" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AEE3DD65-9124-46F1-97A5-C501864CBC83}"/>
-    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{97AC0699-0489-4E69-B4D4-BE0473C7699B}"/>
-    <hyperlink ref="E6" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DD420AFE-8B0E-4C00-90E0-83341AB3F8E8}"/>
-    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BDE28864-B7B7-4855-A219-5927F0D16ECE}"/>
-    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CB10D4D9-3FAA-47E0-B391-993DD557B1CC}"/>
-    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{554FBA30-67A2-471C-B0E7-458DECBF5CDB}"/>
-    <hyperlink ref="C8" location="EKİM!A1" display="EKİM" xr:uid="{41529FB4-C649-4AE1-A66F-C95B7502E0C5}"/>
-    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{A13CD07A-E497-4DEA-A7EA-B23D56238061}"/>
-    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{7F5E5537-3EDE-4C1C-9305-0D4EC4D8E937}"/>
+    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{58B82EC3-9A5F-4141-BB84-8E2114107B50}"/>
+    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1FBBE9DF-6AF0-46B1-913C-122993611439}"/>
+    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{573AFEF9-EED5-44FB-B7D7-7E798158518D}"/>
+    <hyperlink ref="C6" location="'NİSAN '!A1" display="NİSAN" xr:uid="{07ED3483-D56B-4636-AD4F-ED2787BF4D70}"/>
+    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{CD743A8D-46C5-437C-98E6-05A05F08C4CD}"/>
+    <hyperlink ref="E6" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{741AEFED-EEA3-4434-B250-F057D3467039}"/>
+    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{28CC0987-DF55-4853-89E8-926D6EEB9405}"/>
+    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{32BF8D6F-877D-4DA0-889D-D9208A9908D9}"/>
+    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5DC08FB4-0516-4C61-AC18-929E8FE6519F}"/>
+    <hyperlink ref="C8" location="EKİM!A1" display="EKİM" xr:uid="{D5582A3F-DF45-42FC-9FE1-4255F96AB480}"/>
+    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{2458961B-7567-49E8-AAE2-2BBA2AC1F859}"/>
+    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{4398C54F-F060-4D1D-A820-2DC0EFAF89A7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2673,7 +2673,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6ADC962-B2F5-4B8C-84A0-BC234027F328}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D4D853-1C85-4325-A3D1-9E6CBB678CEF}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="A1:F100"/>
   <sheetViews>
@@ -3984,18 +3984,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{04376081-0066-4727-98F5-781539C53506}"/>
-    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1D54EA0E-BC02-47F9-B73A-1CBB7BBEA5E3}"/>
-    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{25425E49-7E4F-4D1D-87D1-A6B6B981ACE1}"/>
-    <hyperlink ref="C6" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D863AADC-0AD6-40FE-9AE1-B80AED2ECD14}"/>
-    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{10A66A4A-5C7C-4898-8AB4-F40261D337DF}"/>
-    <hyperlink ref="E6" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8C9BC2F9-BC38-410A-8F4E-DA549E8C8BF1}"/>
-    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{96A021D6-93BE-4A45-A255-ACA28F831466}"/>
-    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{26A457DF-559F-4090-87A8-14184D391F00}"/>
-    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4B841056-8C52-427B-8CE7-CD85E4716C5F}"/>
-    <hyperlink ref="C8" location="EKİM!A1" display="EKİM" xr:uid="{F213E989-E0EB-41D8-B765-1D094D237FFE}"/>
-    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{084513C3-181E-4A1A-A27C-C0C520D9843F}"/>
-    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{3D4165CA-97F2-4391-951A-18E63DB0B6EF}"/>
+    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{112D72EB-DA7D-402A-8B4D-E8D401BA1E65}"/>
+    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DACC3BB3-1364-4A71-9377-566BE5DDCF10}"/>
+    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{BED1874E-5892-4B23-BAB4-EE52F76390E7}"/>
+    <hyperlink ref="C6" location="'NİSAN '!A1" display="NİSAN" xr:uid="{28A99DBE-5E6F-4D11-8172-C75EC12AA043}"/>
+    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{FE7F0A49-228C-462D-B25B-06775376CB2A}"/>
+    <hyperlink ref="E6" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{68F58965-5494-4696-8C91-DA3C00E0E0A6}"/>
+    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5F3CEC89-F9FC-4E38-8573-2B918747AB04}"/>
+    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{73F77D73-4160-4587-A378-ECFE2113085F}"/>
+    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C22D04DC-5557-49FE-8077-E2ACE8F22BB5}"/>
+    <hyperlink ref="C8" location="EKİM!A1" display="EKİM" xr:uid="{0D91F135-2A5F-4AC9-B38E-2C4C3F1CB917}"/>
+    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{215AE1D3-1ADB-4585-BF20-4D56D11A02CB}"/>
+    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{D967ADF2-E812-41E7-92AA-18F084B202B0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4008,7 +4008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6866EDF-A2A1-4734-B8DA-B944903B4215}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A3025A-FCA2-4B7B-9033-B0320E4FA8E2}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="A1:F100"/>
   <sheetViews>
@@ -5315,18 +5315,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{D77CD14A-1081-473D-95BE-C38F406186D4}"/>
-    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D9C2BE85-9E70-4DCE-AB09-4474ADA678B8}"/>
-    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{754228B6-4E0A-465B-A5AF-1A5333C55183}"/>
-    <hyperlink ref="C6" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E64C1A38-28A0-4062-8B03-76CC4D0D2F9F}"/>
-    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{8F810603-78B0-4C59-B2BD-78F5D4E54808}"/>
-    <hyperlink ref="E6" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FD41F63F-59FA-4F62-8091-3726AB8B394B}"/>
-    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{685F1E78-B8C9-457D-BC74-85C027F1160E}"/>
-    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3BAF2C8B-CC9D-4552-9656-DF81A4FD2B0F}"/>
-    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8A2EE5A3-E92B-49A7-A021-C936611DE4B9}"/>
-    <hyperlink ref="C8" location="EKİM!A1" display="EKİM" xr:uid="{A1F7B505-6688-45F4-8461-D103AE8842C8}"/>
-    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{1063551E-3291-49D4-9B3A-E68D18797438}"/>
-    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{63CEEACC-5D0F-4625-B26B-A246B8F70426}"/>
+    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{369E226A-851C-48D5-8B7E-A8C63282B67B}"/>
+    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{37898102-2E3E-4E63-9BCB-660BAF0B8533}"/>
+    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{20E6A037-C98D-4356-9ECF-486C8990F045}"/>
+    <hyperlink ref="C6" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0C4339FD-1468-442F-AE11-805C1A0B40EE}"/>
+    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{475D99DD-7124-40F8-8DB0-7B35B6925FBA}"/>
+    <hyperlink ref="E6" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{972A04DF-4B85-4314-A09E-0989B40F8EB8}"/>
+    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6226CC76-2EC7-45ED-9FDB-9B6B8C3780C1}"/>
+    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{14F2659D-3D11-4267-9803-F8556B7626BA}"/>
+    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{18DEF647-FE3F-4A93-9395-091021C73818}"/>
+    <hyperlink ref="C8" location="EKİM!A1" display="EKİM" xr:uid="{55BCB35E-B9DC-4DD4-B156-CBC6B238E0C7}"/>
+    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{D0704A3D-4688-4C33-8DB6-1F1C966C0E5B}"/>
+    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{C93D38AF-949D-47EB-AE3D-DDEF95993551}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5339,7 +5339,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19ECE6AF-C5C8-4EED-9058-23F8B33ACBD9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816BB114-1D40-4FAA-B748-28D772429E6D}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="A1:F100"/>
   <sheetViews>
@@ -6646,18 +6646,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{BFA38335-DA36-4BFD-87F6-B7EB97252789}"/>
-    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1FAB971C-ECAA-442A-95E8-8A5B271C7048}"/>
-    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{70CC7EA8-5C4A-4A9C-AD3D-0C8A0F425DB3}"/>
-    <hyperlink ref="C6" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1F8D4489-01A8-465C-B75D-3422DF61A8E8}"/>
-    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{A264D1C6-8407-43C1-9E58-C9B3782B51D5}"/>
-    <hyperlink ref="E6" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BFCB7C04-75B3-4D98-B491-D9131ED64BA6}"/>
-    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C7D66AD8-1270-4121-A055-553036FF682C}"/>
-    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{01C8948F-E8D6-495B-8A07-880CF7F865DB}"/>
-    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8D077FDD-0BC5-4999-852D-C4116C1B830C}"/>
-    <hyperlink ref="C8" location="EKİM!A1" display="EKİM" xr:uid="{EA3CA3FE-7533-4B6A-BC29-258C13BC7DD0}"/>
-    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{863B2AB6-CD57-4408-8F24-BF3A4262897D}"/>
-    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{CB036E29-F5A2-4292-B4B8-3835A6481059}"/>
+    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{F3DC2818-3D36-40F2-B1C9-01CD953DFA59}"/>
+    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C7442FD7-4F55-4107-A0AF-20FA5CF568F4}"/>
+    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{9A24E466-0F4C-407B-A088-6BD403BA8DE3}"/>
+    <hyperlink ref="C6" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C7F8390F-26F3-42B8-87DB-336E2CF58E71}"/>
+    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{3FAFEA7D-2D48-4EDE-B9AE-8D11E2C5A468}"/>
+    <hyperlink ref="E6" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CC5CAC4C-DCFE-4EBF-8866-22C4D880A470}"/>
+    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{12EC1CFF-08CC-48D5-AAD2-B11E08A8E838}"/>
+    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8DF97287-0989-4600-8E8F-6B7F3D543AD1}"/>
+    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{711675E7-7274-4F08-8F0D-44D1259CA0FD}"/>
+    <hyperlink ref="C8" location="EKİM!A1" display="EKİM" xr:uid="{F2119F0E-9F29-4307-805A-1A41EF59DF8E}"/>
+    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{03894E25-645F-4077-A47D-40791D1862DD}"/>
+    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{F21BA147-A2DD-4834-AEDB-A3AD87CE750A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6670,7 +6670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B55E7A-6911-4872-8A04-15DF6B74F5BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA76619-5EDF-4AF2-A43F-42669998B7C5}">
   <sheetPr codeName="Sayfa11"/>
   <dimension ref="A1:F101"/>
   <sheetViews>
@@ -7993,18 +7993,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{DDCCBF0E-2D1B-4091-959D-604BFDC484E2}"/>
-    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{22AD3625-D23B-402D-9F6E-81D6B5BDC597}"/>
-    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{10DDB6B5-4034-4E4B-8FEA-A618082D9C26}"/>
-    <hyperlink ref="C6" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6FF1C8EC-14E4-400E-B451-33F4A2255264}"/>
-    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{56A9B56E-A5FB-4DD1-82A1-E7598DEC3359}"/>
-    <hyperlink ref="E6" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B71FEFA6-1FD1-4D8A-83F7-BB0498AC1B10}"/>
-    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2A8644BF-CBFC-478F-B2E2-7F31A814C6AE}"/>
-    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7F9D1C5D-B405-4951-A489-4026A8E40DA1}"/>
-    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8CE2E5EC-B543-4B4A-B13F-537BA53D763B}"/>
-    <hyperlink ref="C8" location="EKİM!A1" display="EKİM" xr:uid="{A5B6C32B-0343-42C9-80DB-DE819F93A0C9}"/>
-    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{249C76E0-00D9-4304-A0CD-A93AF7DE7F2F}"/>
-    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{8F32F8FA-45E3-4689-B1DD-839A8FA2AD69}"/>
+    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{EB9687B1-682A-4407-A874-B59B074666F5}"/>
+    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{628815B1-126D-4244-B722-14219DB2EABF}"/>
+    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{DEE4B3C6-5D7E-4134-A55C-410539B0ED5D}"/>
+    <hyperlink ref="C6" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FD8E7180-9720-47BF-A486-963C6BF2132D}"/>
+    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{B39FC4BF-78F7-4D7D-B616-B01054229CAA}"/>
+    <hyperlink ref="E6" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AB80E5C6-E64B-47B2-8543-A17FBE3D137A}"/>
+    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9C050370-7640-4D16-AFF3-896E50F4519C}"/>
+    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CF592E51-14B6-49C6-B02B-614F2EAD640E}"/>
+    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B1E307A1-974E-4019-B6E5-4C67CC165913}"/>
+    <hyperlink ref="C8" location="EKİM!A1" display="EKİM" xr:uid="{E1133C11-3736-4F7F-AA9C-63C2E10D2995}"/>
+    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{77868EAD-6E93-44B3-9FB1-8C6A7B483401}"/>
+    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{1AA98593-059D-44FF-8212-1357E24A5F02}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8017,7 +8017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675A3C00-5A09-48B2-BA99-971311149426}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B57BCC-C566-49C0-808D-7DB9891CE765}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="A1:F101"/>
   <sheetViews>
@@ -9340,18 +9340,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{61317067-55E7-46A5-8551-F8398900407C}"/>
-    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{916FA760-691F-49C1-95C8-396D4199D735}"/>
-    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{8AC34514-10F1-49AE-BF0E-B349333B6D1C}"/>
-    <hyperlink ref="C6" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1EB6BCF6-8C31-4B80-A4CA-D075C4C65B13}"/>
-    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{A5989E09-8768-4CD4-B6FD-DC24F8D11AFE}"/>
-    <hyperlink ref="E6" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{669C1B0C-ABE5-4D69-8B59-1C6FFCA02830}"/>
-    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{401932BE-8A04-4EF5-BD62-7B7EE02CE740}"/>
-    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{637A726F-1EFF-412A-9658-90B2D0419330}"/>
-    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{758B8ABD-C198-49C2-843E-D6EFD0778D16}"/>
-    <hyperlink ref="C8" location="EKİM!A1" display="EKİM" xr:uid="{D3D0CA96-5887-4F48-B89F-F16BD0ECCC37}"/>
-    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{B5279AD8-8DB2-4F83-95CD-3E3A74C85484}"/>
-    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{D25BD77D-22EB-4F1D-8718-6EFEAC567F65}"/>
+    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{A85A81B7-B2A1-45BB-BB21-A5CC17BB2A84}"/>
+    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5CD7C6B8-CD17-4B60-AAAE-4F89E38523A9}"/>
+    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{9F01AB31-A9A3-40F5-9303-D86F8B127FAF}"/>
+    <hyperlink ref="C6" location="'NİSAN '!A1" display="NİSAN" xr:uid="{14CAB622-D838-4658-B73D-39824A333AB4}"/>
+    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{17EA3C42-BBE1-44EE-A091-1A02E95C576A}"/>
+    <hyperlink ref="E6" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7E6AFDD6-5BC0-40A2-9E2D-9D26D460428C}"/>
+    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3EE49491-040E-456D-926A-DBC3BDCE0EE7}"/>
+    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5D850468-AAF4-41AB-B356-403E7F9E4C33}"/>
+    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F872547E-6674-4C6F-A80A-3A9F3C902038}"/>
+    <hyperlink ref="C8" location="EKİM!A1" display="EKİM" xr:uid="{A8F0FD9E-7DC1-4892-A10D-06A8CB434528}"/>
+    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{C10772BB-5C43-497F-B8E3-FB931E19A3D6}"/>
+    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{84E94CE2-B7A9-44D5-A8A5-BBC59BE05599}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9364,7 +9364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7CDEC1-D255-4CEF-9846-46992DC72A11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4AA980A-DE24-45FB-97AD-EADFDDE405A3}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="A1:F101"/>
   <sheetViews>
@@ -10687,18 +10687,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{5F205F8F-4540-4183-B210-F789CB80EC58}"/>
-    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3E9FA9B7-4577-40BA-94C7-166C1D2CE860}"/>
-    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{41C007EB-2CD0-4660-9839-3DC88135F14B}"/>
-    <hyperlink ref="C6" location="'NİSAN '!A1" display="NİSAN" xr:uid="{ED8B1B26-8056-4B7A-B44C-4FDF3C92CA9A}"/>
-    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{FCEA9ABD-2272-4D81-B544-37195A1AB3B1}"/>
-    <hyperlink ref="E6" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F97B4B48-F4E8-4435-B053-C1F3249B7C10}"/>
-    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D24065B0-3220-4F5B-A697-278841ABAA44}"/>
-    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{283AC17C-92F9-49C2-81DC-EA22BF634DD5}"/>
-    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2AA63C01-2551-4791-A1ED-39F2FAA43281}"/>
-    <hyperlink ref="C8" location="EKİM!A1" display="EKİM" xr:uid="{0FC22A04-3CCB-413A-B2B3-2AD64D491BDF}"/>
-    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{AA41A84B-CF55-4B2D-9B0E-58AB89D498BF}"/>
-    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{B270049B-45E0-4B37-86B1-9CEB37F0E39C}"/>
+    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{2CF620AF-A496-44A1-87C7-15B32282C6FE}"/>
+    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E567DBFA-C8B6-4D87-827E-27411998FEE9}"/>
+    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{1DC7B5D4-BC90-47E9-9534-BBE5BC913C3A}"/>
+    <hyperlink ref="C6" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5AD2ADB8-6194-408D-B527-271D43C62A8B}"/>
+    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{89F7B866-30E0-4E41-A644-F0B83EBFAEBE}"/>
+    <hyperlink ref="E6" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1E4CB9B3-5453-4548-B9DA-258A5D4691BF}"/>
+    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9B0A2DD3-0636-4E83-89A3-455D94856D2F}"/>
+    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8B2A6FF1-BD05-4D7A-AB89-60CFE7B15747}"/>
+    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F026A383-D735-4415-9155-E071DCB3A6A7}"/>
+    <hyperlink ref="C8" location="EKİM!A1" display="EKİM" xr:uid="{46CFF0D9-1FB9-4796-8FA2-716D6BBFD14B}"/>
+    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{BA2042A7-3B1F-4435-8C33-F9266A311C45}"/>
+    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{D08D52A4-84E5-4BBE-B86F-12594FAACF82}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10711,7 +10711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00BD171F-D7F8-4851-81F3-FB7CC78826E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C73F57D-70D0-49D6-865C-C2BE822940CF}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="A1:F101"/>
   <sheetViews>
@@ -12034,18 +12034,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{2B0B5377-FC1A-4162-9A67-64012B59A490}"/>
-    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{18317743-5A01-43D2-BB2F-A92EE043B11D}"/>
-    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{FCCABE44-A55A-4926-A0D3-B6C814919F5E}"/>
-    <hyperlink ref="C6" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B526DFF7-B870-495D-B21E-B15A9C4E5867}"/>
-    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{59E81A21-E7B3-4414-8C8D-2755DB1B546F}"/>
-    <hyperlink ref="E6" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9019BB4B-B6B8-4D5B-9CEE-23372E54A342}"/>
-    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7F6E7A1C-F65B-45B1-BF89-925827A4E2C8}"/>
-    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8CAD381C-041B-41A4-B372-CD7E9F5086E7}"/>
-    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0FB89DDD-C776-4FF7-B2F0-C7CBAB274AF3}"/>
-    <hyperlink ref="C8" location="EKİM!A1" display="EKİM" xr:uid="{0362E330-0E00-485D-814F-5DB966A38F12}"/>
-    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{E69A64D4-06F6-40F5-9A91-39C1B8142ED4}"/>
-    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{D5FDB52F-B116-4FAB-90B9-86DDA1B5112C}"/>
+    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{4F9EACB3-38D6-462A-A650-D1EA0E14C9A5}"/>
+    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E45EB9BE-CD7F-4007-A9A0-AB1CABE9D64E}"/>
+    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{ED4DBD70-B882-4B31-8091-3407C09BE876}"/>
+    <hyperlink ref="C6" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B87378B4-33C9-44C6-859A-9D9E7F3DE4A8}"/>
+    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{943F50E8-C51E-48ED-B24F-0ABC5499A4C3}"/>
+    <hyperlink ref="E6" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CF030E42-5112-42EA-8BC6-62979484417A}"/>
+    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{857D000C-DE22-4A9D-AA7F-D19EEDF779E4}"/>
+    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{95601231-55C3-4A62-8450-B14105FBCEDB}"/>
+    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4B0417DB-018D-43A1-A53C-97BC6156CA03}"/>
+    <hyperlink ref="C8" location="EKİM!A1" display="EKİM" xr:uid="{229C16EB-E546-472A-A636-19F1EAA5BADD}"/>
+    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{3B36BBD9-386A-4A60-8C4B-7C231CCAFF9A}"/>
+    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{990CF94A-A330-4F37-AFC7-40E36951C1F8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12058,7 +12058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CD5627-3C6B-42EB-9AD5-3CFCDA39DB90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D17CB29-24D7-43F7-9C82-A32F9555690B}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="A1:F100"/>
   <sheetViews>
@@ -13373,18 +13373,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{BBF466D9-3596-41E5-9526-5099D3E37EA9}"/>
-    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F1FF2314-704E-4B6E-9693-A0EEC24EA957}"/>
-    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{EFAECC65-FDCC-4F04-A597-1F5F81AF19C9}"/>
-    <hyperlink ref="C6" location="'NİSAN '!A1" display="NİSAN" xr:uid="{90C88197-F8EB-4DD0-ABB4-AB23938E93AC}"/>
-    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{E0AEDE80-BBCE-4703-BB91-3010882EBFCF}"/>
-    <hyperlink ref="E6" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F80F74D7-F075-40D8-BC75-2BC8ECE91925}"/>
-    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3CAC4A4A-0446-42C4-A62B-D837B0DD34ED}"/>
-    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D0F2124D-0611-4B31-953F-57E870430E6B}"/>
-    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EB01D2DF-2BA0-44EA-9025-6D6DC656E7E5}"/>
-    <hyperlink ref="C8" location="EKİM!A1" display="EKİM" xr:uid="{AB7C1BE4-FA70-437E-86F5-4D690CFA2C27}"/>
-    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{A4793B66-83D9-4629-9E4F-3EE7359A173A}"/>
-    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{7E5FEB51-63BA-4049-8C69-714185B59052}"/>
+    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{3192A9B8-0B30-49B0-B291-64F6949016F8}"/>
+    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FF9BBB32-1EE5-46B5-B9F2-49B0D0DD3057}"/>
+    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{D3ACEC43-EA7D-49A0-AA61-15E0342FB55A}"/>
+    <hyperlink ref="C6" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5D4C40D6-B8F7-4739-9DDD-5029409F0C0A}"/>
+    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{05BAE6BE-BCFE-4A4C-8A98-3FA523FBB7E8}"/>
+    <hyperlink ref="E6" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A0D86DA7-3D95-4EE0-B556-91D328F9578B}"/>
+    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{569C8A9E-6C77-40A1-8D28-AC3327C269BF}"/>
+    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F0002B59-41EB-48D1-99BE-6D6D35D060E2}"/>
+    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9D04609A-02FE-46B4-B430-31C3AAB3ECD8}"/>
+    <hyperlink ref="C8" location="EKİM!A1" display="EKİM" xr:uid="{29C20AB5-7D9C-46C6-BF02-6D084D22B814}"/>
+    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{168B68C0-56B4-4780-B63F-BEA579165C6B}"/>
+    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{0D680B0A-56CD-4EEA-9C8F-DC6FF08EE23F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13397,7 +13397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{927823D5-A5C6-4EAA-BDFE-D2EE23F22BC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE00D8E-D79E-45C4-99BE-D37841FC7B4E}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="A1:F100"/>
   <sheetViews>
@@ -14712,18 +14712,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{6F0458B6-F36E-4B73-AA84-C5ED65738EEE}"/>
-    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{083DB41B-FA7F-4093-AEC1-9F8C09249C82}"/>
-    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{CCB31C5A-CE36-4392-9395-6DE664EB3120}"/>
-    <hyperlink ref="C6" location="'NİSAN '!A1" display="NİSAN" xr:uid="{45898179-06FB-4C8A-8E28-FE061EB259CE}"/>
-    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{0670B9A8-7DE6-4A7D-A314-A141178C5285}"/>
-    <hyperlink ref="E6" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E78C47F7-A38B-4C0B-BF74-7E28989A294D}"/>
-    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{743721F9-0479-4FE1-97E7-73462B455730}"/>
-    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{169DFE8F-896A-4E84-90F8-757F55197D87}"/>
-    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A07D0636-D79F-458D-B263-5F5153DAA0E6}"/>
-    <hyperlink ref="C8" location="EKİM!A1" display="EKİM" xr:uid="{4BD97099-0519-4595-9CFF-49CE82900A4B}"/>
-    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{3AFFDDB0-0780-4567-A60A-A64F06315D49}"/>
-    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{86502504-6DE0-4FDB-BF99-4CE4A5068E99}"/>
+    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{68276C2E-5B43-4D9C-AA52-C0E79E93A0DF}"/>
+    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B9890181-FFD7-4930-A37B-2191C13A3772}"/>
+    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{76DDFBA2-4A03-40D6-9080-0A080A859762}"/>
+    <hyperlink ref="C6" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0BB16156-B081-4A21-B089-74C2DD72FDCD}"/>
+    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{474B1E06-A331-4E52-B4D3-5812F793D17D}"/>
+    <hyperlink ref="E6" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6C80FE3B-2B93-4059-8626-D2EFA37C8B03}"/>
+    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FDD60B3E-9FB3-497A-9EBE-508779A32D1E}"/>
+    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{78039FB9-2267-4647-B5EF-2DBDB61322A3}"/>
+    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{29835C3B-9184-45C0-9059-6A6D79B9CC81}"/>
+    <hyperlink ref="C8" location="EKİM!A1" display="EKİM" xr:uid="{14167E9E-6E69-4DC1-A29E-0EC522B519C7}"/>
+    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{CE9577BD-296F-461D-A0D1-E94FBCD83CF2}"/>
+    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{42948E54-FACC-44D5-A16A-CEDE470285E0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14736,7 +14736,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B73168D-DF64-4946-B719-AB0D763EBA06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C38586-586C-47CE-A8FD-E517F20B5B3E}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="A1:F100"/>
   <sheetViews>
@@ -16051,18 +16051,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{E305CED4-2199-4E4B-AF1B-B842E637C468}"/>
-    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{82C8A3F7-B016-4AE6-829E-F03629FCF6F3}"/>
-    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{6D38BB4D-856F-4117-BC2E-C8350DA4DC2C}"/>
-    <hyperlink ref="C6" location="'NİSAN '!A1" display="NİSAN" xr:uid="{51607B5D-FBEA-4AA7-82B2-6DB97261AAEA}"/>
-    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{45AB0BD8-B8EB-420A-93BA-53C702A06B78}"/>
-    <hyperlink ref="E6" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4B8536B7-CCC9-403B-B628-CED34A62AEAF}"/>
-    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{74B124A5-3A5E-4233-B7C5-5EF256499F46}"/>
-    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{93AD111C-F39B-4C7D-B2A5-DEA8DE178DBC}"/>
-    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B1E04559-3B4E-4A7F-A07F-F194FC38FB0C}"/>
-    <hyperlink ref="C8" location="EKİM!A1" display="EKİM" xr:uid="{B7576590-4DF6-458C-9AA1-293F0957D732}"/>
-    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{34E2BD67-1495-4561-A373-37BB1BAE2ACD}"/>
-    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{886A8C3D-1F65-49BA-9D64-BAFE761EDD38}"/>
+    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{B4F990DF-F7CD-4C67-9421-F73025349C2E}"/>
+    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{16C0DBD1-DCB8-449B-842A-79ABE85E28A4}"/>
+    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{65D3B653-40B1-4B85-84FD-EFF085DDBEF1}"/>
+    <hyperlink ref="C6" location="'NİSAN '!A1" display="NİSAN" xr:uid="{54D904FB-C626-4B33-A83B-5DA700D48025}"/>
+    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{DAA1C810-7A42-48A9-8C58-7176A27D0BAE}"/>
+    <hyperlink ref="E6" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8FACBEA4-2B63-4DDD-995E-C56E9C833E5F}"/>
+    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DDE25755-731A-4B94-9EC9-9EC25BF00D42}"/>
+    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2E0A0E6E-2143-49EC-8518-BD18106B76FF}"/>
+    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3DCFB6DB-D9E7-4ECD-A165-F75080F236C0}"/>
+    <hyperlink ref="C8" location="EKİM!A1" display="EKİM" xr:uid="{FFA6739B-67F7-4463-9E94-D356C49EB70C}"/>
+    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{21585454-B2E2-40CE-B2D9-85754E33FA31}"/>
+    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{4545BE19-1CCC-4878-84F1-097E9F925070}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -16075,7 +16075,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DF0219-5776-4BEA-947D-945E7BAC95F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38CA579-8F22-486F-854B-4A7FC9B9D7DB}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="A1:F100"/>
   <sheetViews>
@@ -17390,18 +17390,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{3DED7304-0446-4DD6-B2EE-21D1D4A60206}"/>
-    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E511E33D-4AEE-4584-91A0-8C33229397AE}"/>
-    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{6EB54BFC-E645-42A5-A413-88E4F75AF45E}"/>
-    <hyperlink ref="C6" location="'NİSAN '!A1" display="NİSAN" xr:uid="{38B1A6F1-604F-49CE-999A-3B7A52973657}"/>
-    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{36755457-B4BF-4081-9C1E-275153699327}"/>
-    <hyperlink ref="E6" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{830C385E-174E-4B3D-8DF8-9BBB1B39AACD}"/>
-    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A1A7793E-4389-427F-B125-696A7B0939F5}"/>
-    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8755949C-AB62-4BF7-9E04-49B6CA38250B}"/>
-    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3F1026E5-E414-4E36-A5EB-595D21BA8004}"/>
-    <hyperlink ref="C8" location="EKİM!A1" display="EKİM" xr:uid="{36C3143C-4C0B-45ED-A87F-86EDE50C6040}"/>
-    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{33E11283-87B8-4043-9744-151613293D16}"/>
-    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{925353FE-CBDB-4143-8D2A-BBC41B6FBDD8}"/>
+    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{2BD499D9-0954-4D13-98BF-026A0205C41D}"/>
+    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CDDF962B-1D7B-4E79-B92F-3EAE82972999}"/>
+    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{744BB0E3-F1F7-484C-A3FD-E22D6D86B9C6}"/>
+    <hyperlink ref="C6" location="'NİSAN '!A1" display="NİSAN" xr:uid="{89760C03-6B6F-4033-9508-B9B93CE2849A}"/>
+    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{DD4772F3-9647-4857-A466-CFF51C2B8204}"/>
+    <hyperlink ref="E6" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5807D327-3C73-4A4D-B77A-3F708C3639FB}"/>
+    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9C215A9B-99DE-4FCE-B54D-A12FEC847BBB}"/>
+    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{32ACBE0F-38D8-4906-A519-47E95AB42010}"/>
+    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A80A51AE-8F0D-4AF5-A57D-54154103C635}"/>
+    <hyperlink ref="C8" location="EKİM!A1" display="EKİM" xr:uid="{2BEF6D4A-9D18-4F95-896F-10003CADC01F}"/>
+    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{81285834-9F24-4012-A028-8C9891F6465E}"/>
+    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{FF0C0964-6573-468F-AC7F-90114B986516}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
